--- a/tests/test_inputs/test_inputs_Hospital_ExcelInput2.xlsx
+++ b/tests/test_inputs/test_inputs_Hospital_ExcelInput2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/pyrecodes_development/tests/test_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/pyrecodes_hospitals/tests/test_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C4391E-B2C9-7A42-925B-9847FB437945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830B113-D85C-4848-87B0-75CF9F3CEA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{8A19E584-5C10-AD41-83D9-0E8D98A88E8A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="102">
   <si>
     <t>Nurses</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>Walking</t>
+  </si>
+  <si>
+    <t>RestOfHospital</t>
   </si>
 </sst>
 </file>
@@ -1565,6 +1568,39 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1577,46 +1613,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1995,7 +1998,7 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="133" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="78" t="s">
@@ -2008,7 +2011,7 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="137"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="80" t="s">
         <v>79</v>
       </c>
@@ -2019,7 +2022,7 @@
       <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="137"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="82" t="s">
         <v>80</v>
       </c>
@@ -2029,7 +2032,7 @@
       <c r="D6" s="81"/>
     </row>
     <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="83" t="s">
         <v>81</v>
       </c>
@@ -2041,7 +2044,7 @@
       <c r="K7" s="125"/>
     </row>
     <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="84" t="s">
         <v>82</v>
       </c>
@@ -2080,7 +2083,7 @@
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="135" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="29">
@@ -2092,7 +2095,7 @@
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="140"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="29">
         <v>0</v>
       </c>
@@ -2104,7 +2107,7 @@
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="140"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="30">
         <v>6</v>
       </c>
@@ -2115,7 +2118,7 @@
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="141"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="29">
         <v>50000</v>
       </c>
@@ -2138,7 +2141,7 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="97">
@@ -2150,7 +2153,7 @@
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="143"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="29">
         <v>100000000</v>
       </c>
@@ -2166,7 +2169,7 @@
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="143"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="28">
         <v>6</v>
       </c>
@@ -2177,7 +2180,7 @@
       <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="144"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="29">
         <v>30000</v>
       </c>
@@ -2200,7 +2203,7 @@
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="31">
@@ -2212,7 +2215,7 @@
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="143"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="29">
         <v>10000000</v>
       </c>
@@ -2226,7 +2229,7 @@
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="143"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="29">
         <v>6</v>
       </c>
@@ -2239,7 +2242,7 @@
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="144"/>
+      <c r="B27" s="140"/>
       <c r="C27" s="31">
         <v>1000000</v>
       </c>
@@ -2265,7 +2268,7 @@
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="141" t="s">
         <v>83</v>
       </c>
       <c r="B30" s="106" t="s">
@@ -2280,7 +2283,7 @@
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="146"/>
+      <c r="A31" s="142"/>
       <c r="B31" s="107" t="s">
         <v>79</v>
       </c>
@@ -2292,7 +2295,7 @@
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="146"/>
+      <c r="A32" s="142"/>
       <c r="B32" s="107" t="s">
         <v>80</v>
       </c>
@@ -2311,7 +2314,7 @@
       <c r="A33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="143" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="29">
@@ -2328,7 +2331,7 @@
       <c r="A34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="132"/>
+      <c r="B34" s="143"/>
       <c r="C34" s="29">
         <v>720</v>
       </c>
@@ -2340,7 +2343,7 @@
       <c r="A35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="132"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="29">
         <v>24</v>
       </c>
@@ -2356,7 +2359,7 @@
       <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="132"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="29">
         <v>96</v>
       </c>
@@ -2391,7 +2394,7 @@
       <c r="A39" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="132" t="s">
+      <c r="B39" s="143" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="28">
@@ -2403,7 +2406,7 @@
       <c r="A40" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="132"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="29">
         <v>10</v>
       </c>
@@ -2417,7 +2420,7 @@
       <c r="A41" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="133"/>
+      <c r="B41" s="144"/>
       <c r="C41" s="32">
         <v>80</v>
       </c>
@@ -2454,7 +2457,7 @@
       <c r="A45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="134" t="s">
+      <c r="B45" s="145" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="28">
@@ -2467,7 +2470,7 @@
       <c r="A46" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="135"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="29">
         <v>37</v>
       </c>
@@ -2477,7 +2480,7 @@
       <c r="A47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="135"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="29">
         <v>1</v>
       </c>
@@ -2487,7 +2490,7 @@
       <c r="A48" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="135" t="s">
+      <c r="B48" s="146" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="28">
@@ -2499,7 +2502,7 @@
       <c r="A49" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="135"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="29">
         <v>6</v>
       </c>
@@ -2509,7 +2512,7 @@
       <c r="A50" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="135"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="29">
         <v>1</v>
       </c>
@@ -2519,7 +2522,7 @@
       <c r="A51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="135" t="s">
+      <c r="B51" s="146" t="s">
         <v>80</v>
       </c>
       <c r="C51" s="29">
@@ -2531,7 +2534,7 @@
       <c r="A52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="135"/>
+      <c r="B52" s="146"/>
       <c r="C52" s="29">
         <v>50</v>
       </c>
@@ -2541,7 +2544,7 @@
       <c r="A53" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="135"/>
+      <c r="B53" s="146"/>
       <c r="C53" s="29">
         <v>0</v>
       </c>
@@ -2551,7 +2554,7 @@
       <c r="A54" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="136" t="s">
+      <c r="B54" s="132" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="29">
@@ -2563,7 +2566,7 @@
       <c r="A55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="136"/>
+      <c r="B55" s="132"/>
       <c r="C55" s="29">
         <v>100</v>
       </c>
@@ -2573,7 +2576,7 @@
       <c r="A56" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="136"/>
+      <c r="B56" s="132"/>
       <c r="C56" s="29">
         <v>0</v>
       </c>
@@ -2583,7 +2586,7 @@
       <c r="A57" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="136" t="s">
+      <c r="B57" s="132" t="s">
         <v>82</v>
       </c>
       <c r="C57" s="29">
@@ -2595,7 +2598,7 @@
       <c r="A58" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="136"/>
+      <c r="B58" s="132"/>
       <c r="C58" s="29">
         <v>100</v>
       </c>
@@ -2605,7 +2608,7 @@
       <c r="A59" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="136"/>
+      <c r="B59" s="132"/>
       <c r="C59" s="29">
         <v>0</v>
       </c>
@@ -5275,7 +5278,7 @@
   <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:E56"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5465,10 +5468,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="149" t="s">
+      <c r="E7" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="148"/>
       <c r="G7" s="58" t="s">
         <v>61</v>
       </c>
@@ -5479,10 +5482,10 @@
         <v>20</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="149" t="s">
+      <c r="K7" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="149"/>
+      <c r="L7" s="148"/>
       <c r="M7" s="58" t="s">
         <v>61</v>
       </c>
@@ -5493,10 +5496,10 @@
         <v>20</v>
       </c>
       <c r="P7" s="8"/>
-      <c r="Q7" s="149" t="s">
+      <c r="Q7" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="149"/>
+      <c r="R7" s="148"/>
       <c r="S7" s="53" t="s">
         <v>61</v>
       </c>
@@ -6053,10 +6056,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="149" t="s">
+      <c r="E21" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="149"/>
+      <c r="F21" s="148"/>
       <c r="G21" s="58" t="s">
         <v>61</v>
       </c>
@@ -6067,10 +6070,10 @@
         <v>20</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="149" t="s">
+      <c r="K21" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="149"/>
+      <c r="L21" s="148"/>
       <c r="M21" s="58" t="s">
         <v>61</v>
       </c>
@@ -6081,10 +6084,10 @@
         <v>20</v>
       </c>
       <c r="P21" s="8"/>
-      <c r="Q21" s="149" t="s">
+      <c r="Q21" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="149"/>
+      <c r="R21" s="148"/>
       <c r="S21" s="58" t="s">
         <v>61</v>
       </c>
@@ -6095,10 +6098,10 @@
         <v>20</v>
       </c>
       <c r="V21" s="8"/>
-      <c r="W21" s="149" t="s">
+      <c r="W21" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="X21" s="149"/>
+      <c r="X21" s="148"/>
       <c r="Y21" s="53" t="s">
         <v>61</v>
       </c>
@@ -6556,7 +6559,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
@@ -6623,10 +6626,10 @@
         <v>20</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="149" t="s">
+      <c r="E35" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="149"/>
+      <c r="F35" s="148"/>
       <c r="G35" s="53" t="s">
         <v>61</v>
       </c>
@@ -6823,10 +6826,10 @@
         <v>20</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="E49" s="149" t="s">
+      <c r="E49" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="149"/>
+      <c r="F49" s="148"/>
       <c r="G49" s="53" t="s">
         <v>61</v>
       </c>
@@ -6970,8 +6973,8 @@
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="148"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="149"/>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -7053,14 +7056,14 @@
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="148"/>
-      <c r="F74" s="148"/>
+      <c r="E74" s="149"/>
+      <c r="F74" s="149"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
-      <c r="K74" s="148"/>
-      <c r="L74" s="148"/>
+      <c r="K74" s="149"/>
+      <c r="L74" s="149"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
@@ -7152,18 +7155,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="E35:F35"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q22:Q29 W22:W29 E36:E43 E63:E69 K75:K81 E8:E15 K8:K15 E22:E29 K22:K29 Q8:Q15 E75:E81 E50:E57" xr:uid="{504019C3-7A7F-9F49-8A88-D2CEC545D45D}">
@@ -7172,7 +7175,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C18 C32 C46" xr:uid="{B6C52FBF-3B8C-3348-8724-AAA31CB048EF}">
       <formula1>"Walking, Non-walking"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 H2 N2 B16 H16 N16 T16 B30 B44 B58 B70 H70" xr:uid="{B51AF39B-BBD9-EB45-97F9-E32537E7CFAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 H2 N2 B16 H16 N16 T16 H70 B44 B58 B70" xr:uid="{B51AF39B-BBD9-EB45-97F9-E32537E7CFAB}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
